--- a/ProjectManagement/Ganttchart.xlsx
+++ b/ProjectManagement/Ganttchart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selma\Desktop\cpp_project\3D-ScannerProject\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +127,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -196,6 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,8 +629,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -641,7 +648,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -731,7 +738,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>

--- a/ProjectManagement/Ganttchart.xlsx
+++ b/ProjectManagement/Ganttchart.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,9 +703,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
@@ -741,7 +741,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>

--- a/ProjectManagement/Ganttchart.xlsx
+++ b/ProjectManagement/Ganttchart.xlsx
@@ -35,9 +35,6 @@
     <t>11/12 - 17/12</t>
   </si>
   <si>
-    <t>18/12 6 24/12</t>
-  </si>
-  <si>
     <t>25/12 - 31/12</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Final result</t>
+  </si>
+  <si>
+    <t>18/12 - 24/12</t>
   </si>
 </sst>
 </file>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,22 +508,22 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -535,21 +535,21 @@
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -629,17 +629,17 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -657,7 +657,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -675,7 +675,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -688,12 +688,12 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -706,12 +706,12 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -729,7 +729,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -739,15 +739,15 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -765,7 +765,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -786,13 +786,13 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1"/>
     </row>

--- a/ProjectManagement/Ganttchart.xlsx
+++ b/ProjectManagement/Ganttchart.xlsx
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,11 +665,11 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
@@ -687,8 +687,8 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
